--- a/正态分布随机误差生成器.xlsx
+++ b/正态分布随机误差生成器.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF0DAFB-588E-4913-9CE7-ADFB00297515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BA9C46-6C44-4B1A-AEC1-1DC68E817EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>正态分布参数</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>红色格子：填入你的实验数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>黄色格子：自动输出数据</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -105,75 +101,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Posted on https://github.com/Axolyz/fuck-university-physics-experiments.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>「この幻想郷では常識に囚われてはいけないのですね！」</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>「误差,象征着现实世界无限的混沌的存在</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>「而此等驾驭混沌的工具,本身便无异于一柄指向神明宣告战争的圣剑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>「如今,全世界都是神明的墓园</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>「人类始终敬畏而害怕混沌,将混沌视作专为神明裁决的绝对领域</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>「所以自专用于预测与驾驭混沌的数学物理工具发展以降,傲慢的人类便以神明自居</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>「而这专为埋葬旧神的墓园,是否也终将为这新神开放呢」</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>「亿万年的进化史上,在蛇虫猛兽和天灾地孽之间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>「现在我将化为死神,成为世界的毁灭者。」</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>请在运行时默念管理魔王魔法七圣地的少女索非亚琳·SP·撒旦7世,于现世化名为七宫智音殿下的咏唱圣咒:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHERUB 咏唱 !</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SERAPH 降临 !!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHYSICAL LINKAGE !!!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>「那一次次重复的物理实验,也只不过是我们向那形而下的新神虔诚献祭的通灵仪式罢了</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚本基于连关天则架构而成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>正态分布随机误差生成器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>此脚本基于连关天则架构而成,请在使用时默念: PHYSICAL LINKAGE★ !!!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Posted on https://github.com/Axolyz/fuck-nku-physics-experiments.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -609,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -625,348 +569,284 @@
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="7">
+        <v>4.8959999999999999</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="D16" s="11">
+        <f>C16/3</f>
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="9">
+        <v>26.420999999999999</v>
+      </c>
+      <c r="C18" s="9">
+        <v>25.922000000000001</v>
+      </c>
+      <c r="D18" s="9">
+        <v>25.45</v>
+      </c>
+      <c r="E18" s="9">
+        <v>25.478000000000002</v>
+      </c>
+      <c r="F18" s="9">
+        <v>24.67</v>
+      </c>
+      <c r="G18" s="9">
+        <v>24.344999999999999</v>
+      </c>
+      <c r="H18" s="9">
+        <v>24.03</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.9039999999999999</v>
+      </c>
+      <c r="D19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.91</v>
+      </c>
+      <c r="E19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.8949999999999996</v>
+      </c>
+      <c r="F19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.9119999999999999</v>
+      </c>
+      <c r="G19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.8860000000000001</v>
+      </c>
+      <c r="H19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.8959999999999999</v>
+      </c>
+      <c r="I19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.8890000000000002</v>
+      </c>
+      <c r="J19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.8959999999999999</v>
+      </c>
+      <c r="K19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.899</v>
+      </c>
+      <c r="L19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.899</v>
+      </c>
+      <c r="M19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.899</v>
+      </c>
+      <c r="N19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.8890000000000002</v>
+      </c>
+      <c r="O19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.8979999999999997</v>
+      </c>
+      <c r="P19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.891</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="7">
+      <c r="A20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="11">
+        <f ca="1">B18+B19</f>
+        <v>31.311</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" ref="C20:P20" ca="1" si="0">C18+C19</f>
+        <v>30.826000000000001</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>30.36</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>30.373000000000001</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.582000000000001</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.230999999999998</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.926000000000002</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8890000000000002</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>4.8959999999999999</v>
       </c>
-      <c r="C20" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="D20" s="11">
-        <f>C20/3</f>
-        <v>0.01</v>
-      </c>
-      <c r="E20" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="9">
-        <v>26.420999999999999</v>
-      </c>
-      <c r="C22" s="9">
-        <v>25.922000000000001</v>
-      </c>
-      <c r="D22" s="9">
-        <v>25.45</v>
-      </c>
-      <c r="E22" s="9">
-        <v>25.478000000000002</v>
-      </c>
-      <c r="F22" s="9">
-        <v>24.67</v>
-      </c>
-      <c r="G22" s="9">
-        <v>24.344999999999999</v>
-      </c>
-      <c r="H22" s="9">
-        <v>24.03</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B20, D20),E20)</f>
+      <c r="K20" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>4.899</v>
       </c>
-      <c r="C23" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B20, D20),E20)</f>
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="D23" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B20, D20),E20)</f>
-        <v>4.8929999999999998</v>
-      </c>
-      <c r="E23" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B20, D20),E20)</f>
-        <v>4.9089999999999998</v>
-      </c>
-      <c r="F23" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B20, D20),E20)</f>
+      <c r="L20" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.899</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.899</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>4.8890000000000002</v>
       </c>
-      <c r="G23" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B20, D20),E20)</f>
-        <v>4.867</v>
-      </c>
-      <c r="H23" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B20, D20),E20)</f>
-        <v>4.8840000000000003</v>
-      </c>
-      <c r="I23" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B20, D20),E20)</f>
-        <v>4.9009999999999998</v>
-      </c>
-      <c r="J23" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B20, D20),E20)</f>
-        <v>4.9009999999999998</v>
-      </c>
-      <c r="K23" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B20, D20),E20)</f>
-        <v>4.8730000000000002</v>
-      </c>
-      <c r="L23" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B20, D20),E20)</f>
-        <v>4.907</v>
-      </c>
-      <c r="M23" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B20, D20),E20)</f>
-        <v>4.907</v>
-      </c>
-      <c r="N23" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B20, D20),E20)</f>
-        <v>4.9029999999999996</v>
-      </c>
-      <c r="O23" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B20, D20),E20)</f>
-        <v>4.8869999999999996</v>
-      </c>
-      <c r="P23" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B20, D20),E20)</f>
-        <v>4.8929999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="11">
-        <f ca="1">B22+B23</f>
-        <v>31.32</v>
-      </c>
-      <c r="C24" s="11">
-        <f t="shared" ref="C24:P24" ca="1" si="0">C22+C23</f>
-        <v>30.812000000000001</v>
-      </c>
-      <c r="D24" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>30.343</v>
-      </c>
-      <c r="E24" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>30.387</v>
-      </c>
-      <c r="F24" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>29.559000000000001</v>
-      </c>
-      <c r="G24" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>29.212</v>
-      </c>
-      <c r="H24" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>28.914000000000001</v>
-      </c>
-      <c r="I24" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.9009999999999998</v>
-      </c>
-      <c r="J24" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.9009999999999998</v>
-      </c>
-      <c r="K24" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8730000000000002</v>
-      </c>
-      <c r="L24" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.907</v>
-      </c>
-      <c r="M24" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.907</v>
-      </c>
-      <c r="N24" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.9029999999999996</v>
-      </c>
-      <c r="O24" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8869999999999996</v>
-      </c>
-      <c r="P24" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8929999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="O20" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8979999999999997</v>
+      </c>
+      <c r="P20" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A30" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/正态分布随机误差生成器.xlsx
+++ b/正态分布随机误差生成器.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BA9C46-6C44-4B1A-AEC1-1DC68E817EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE05189-868E-4D92-BF39-06F622E899C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>正态分布参数</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -90,18 +90,6 @@
   </si>
   <si>
     <t>随机误差请按F9刷新,生成新的随机数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authored by Axolyz.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Licensed by GPL v3.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -556,7 +544,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -571,24 +559,24 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -701,63 +689,63 @@
       </c>
       <c r="B19" s="11">
         <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.8929999999999998</v>
+      </c>
+      <c r="C19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.9009999999999998</v>
+      </c>
+      <c r="D19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.907</v>
+      </c>
+      <c r="E19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.9029999999999996</v>
+      </c>
+      <c r="F19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.9189999999999996</v>
+      </c>
+      <c r="G19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.9039999999999999</v>
+      </c>
+      <c r="H19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.9059999999999997</v>
+      </c>
+      <c r="I19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.8979999999999997</v>
+      </c>
+      <c r="J19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
         <v>4.8899999999999997</v>
       </c>
-      <c r="C19" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
-        <v>4.9039999999999999</v>
-      </c>
-      <c r="D19" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
-        <v>4.91</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="K19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.899</v>
+      </c>
+      <c r="L19" s="11">
+        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M19" s="11">
         <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
         <v>4.8949999999999996</v>
       </c>
-      <c r="F19" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
-        <v>4.9119999999999999</v>
-      </c>
-      <c r="G19" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
-        <v>4.8860000000000001</v>
-      </c>
-      <c r="H19" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
-        <v>4.8959999999999999</v>
-      </c>
-      <c r="I19" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
-        <v>4.8890000000000002</v>
-      </c>
-      <c r="J19" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
-        <v>4.8959999999999999</v>
-      </c>
-      <c r="K19" s="11">
+      <c r="N19" s="11">
         <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
         <v>4.899</v>
       </c>
-      <c r="L19" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
-        <v>4.899</v>
-      </c>
-      <c r="M19" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
-        <v>4.899</v>
-      </c>
-      <c r="N19" s="11">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
-        <v>4.8890000000000002</v>
-      </c>
       <c r="O19" s="11">
         <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
-        <v>4.8979999999999997</v>
+        <v>4.8869999999999996</v>
       </c>
       <c r="P19" s="11">
         <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),B16, D16),E16)</f>
-        <v>4.891</v>
+        <v>4.8940000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -766,39 +754,39 @@
       </c>
       <c r="B20" s="11">
         <f ca="1">B18+B19</f>
-        <v>31.311</v>
+        <v>31.314</v>
       </c>
       <c r="C20" s="11">
         <f t="shared" ref="C20:P20" ca="1" si="0">C18+C19</f>
-        <v>30.826000000000001</v>
+        <v>30.823</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>30.36</v>
+        <v>30.356999999999999</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>30.373000000000001</v>
+        <v>30.381</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>29.582000000000001</v>
+        <v>29.589000000000002</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>29.230999999999998</v>
+        <v>29.248999999999999</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>28.926000000000002</v>
+        <v>28.936</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8890000000000002</v>
+        <v>4.8979999999999997</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8959999999999999</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="K20" s="11">
         <f t="shared" ca="1" si="0"/>
@@ -806,43 +794,23 @@
       </c>
       <c r="L20" s="11">
         <f t="shared" ca="1" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8949999999999996</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>4.899</v>
       </c>
-      <c r="M20" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.899</v>
-      </c>
-      <c r="N20" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8890000000000002</v>
-      </c>
       <c r="O20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8979999999999997</v>
+        <v>4.8869999999999996</v>
       </c>
       <c r="P20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.891</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>4.8940000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
